--- a/cypress/fixtures/students_import/correct_students_template.xlsx
+++ b/cypress/fixtures/students_import/correct_students_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t xml:space="preserve">ref</t>
   </si>
@@ -40,9 +40,6 @@
     <t xml:space="preserve">sex</t>
   </si>
   <si>
-    <t xml:space="preserve">payment_frequency</t>
-  </si>
-  <si>
     <t xml:space="preserve">STD000001</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">annuel</t>
   </si>
   <si>
     <t xml:space="preserve">STD000002</t>
@@ -137,6 +131,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -181,24 +176,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -394,208 +393,192 @@
   <dimension ref="A1:G999"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="str">
+      <c r="D2" s="4" t="str">
         <f aca="false">CONCATENATE("user",A2,"@hei.school")</f>
         <v>userSTD000001@hei.school</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="5" t="n">
         <v>44621</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="str">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="str">
         <f aca="false">CONCATENATE("user",A3,"@hei.school")</f>
         <v>userSTD000002@hei.school</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="5" t="n">
         <v>44622</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="str">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="str">
         <f aca="false">CONCATENATE("user",A4,"@hei.school")</f>
         <v>userSTD000003@hei.school</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="5" t="n">
         <v>44623</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="str">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="str">
         <f aca="false">CONCATENATE("user",A5,"@hei.school")</f>
         <v>userSTD000004@hei.school</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="5" t="n">
         <v>44624</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3" t="str">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="str">
         <f aca="false">CONCATENATE("user",A6,"@hei.school")</f>
         <v>userSTD000005@hei.school</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="5" t="n">
         <v>44625</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3" t="str">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="str">
         <f aca="false">CONCATENATE("user",A7,"@hei.school")</f>
         <v>userSTD000006@hei.school</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="5" t="n">
         <v>44626</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3" t="str">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="str">
         <f aca="false">CONCATENATE("user",A8,"@hei.school")</f>
         <v>userSTD000007@hei.school</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="5" t="n">
         <v>44627</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
